--- a/scrappers/products_links.xlsx
+++ b/scrappers/products_links.xlsx
@@ -19,43 +19,43 @@
     <t>Category</t>
   </si>
   <si>
+    <t>https://casapeixoto.pt/745-jardim</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/805-ferramentas</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/865-ferragens</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/475-pavimentos-e-revestimentos</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/479-madeiras</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/908-pintura</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/671-cozinhas-e-roupeiros</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/683-eletrodomesticos</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/2778-outros-produtos-e-servicos</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/469-construcao</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/472-aquecimento-e-climatizacao</t>
+  </si>
+  <si>
+    <t>https://casapeixoto.pt/609-casas-de-banho</t>
+  </si>
+  <si>
     <t>https://casapeixoto.pt/712-lar-e-iluminacao</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/745-jardim</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/805-ferramentas</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/865-ferragens</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/469-construcao</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/472-aquecimento-e-climatizacao</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/475-pavimentos-e-revestimentos</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/479-madeiras</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/609-casas-de-banho</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/908-pintura</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/671-cozinhas-e-roupeiros</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/683-eletrodomesticos</t>
-  </si>
-  <si>
-    <t>https://casapeixoto.pt/2778-outros-produtos-e-servicos</t>
   </si>
   <si>
     <t>https://casapeixoto.pt/3850-canalizacoes-e-saneamento</t>
